--- a/KatalonData/VRelay30PayNow.xlsx
+++ b/KatalonData/VRelay30PayNow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KatalonData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14BA179-5AE6-42F1-B720-994DA08F3CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5454615-6090-43F1-BB88-EF45372DC307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13410" yWindow="6825" windowWidth="14370" windowHeight="8820" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}"/>
   </bookViews>
   <sheets>
     <sheet name="PayNowCC" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="136">
   <si>
     <t>Notes</t>
   </si>
@@ -401,15 +401,9 @@
     <t>35.50</t>
   </si>
   <si>
-    <t>112.50</t>
-  </si>
-  <si>
     <t>41.50</t>
   </si>
   <si>
-    <t>15.50</t>
-  </si>
-  <si>
     <t>No Data in Emulator Populate PE page Visa</t>
   </si>
   <si>
@@ -438,6 +432,18 @@
   </si>
   <si>
     <t>more than maximum amount error</t>
+  </si>
+  <si>
+    <t>2001.50</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -505,7 +511,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -821,1094 +827,1125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4684B99E-74C7-4C50-809D-02154653C064}">
-  <dimension ref="A1:AX10"/>
+  <dimension ref="A1:AY10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Y1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:A10"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1"/>
-    <col min="30" max="30" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="39" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.7109375" style="1" customWidth="1"/>
-    <col min="42" max="42" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="16384" width="15.7109375" style="1"/>
+    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="24" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" style="1"/>
+    <col min="31" max="31" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="40" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.7109375" style="1" customWidth="1"/>
+    <col min="43" max="43" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="16384" width="15.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="U2" s="1" t="s">
+      <c r="R2" s="2"/>
+      <c r="V2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AO2" s="1" t="s">
+      <c r="AP2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AR2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AX2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AC3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AR3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AS3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AH4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AL4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AM4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AP4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AP4" s="1" t="s">
+      <c r="AQ4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AQ4" s="1" t="s">
+      <c r="AR4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AR4" s="1" t="s">
+      <c r="AS4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AS4" s="1" t="s">
+      <c r="AT4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AU4" s="1" t="s">
+      <c r="AV4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AV4" s="1" t="s">
+      <c r="AW4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AW4" s="1" t="s">
+      <c r="AX4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AX4" s="2" t="s">
+      <c r="AY4" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="V5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="V6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY6" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="U5" s="1" t="s">
+      <c r="R7" s="2"/>
+      <c r="V7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AG7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AG5" s="1" t="s">
+      <c r="AH7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AK5" s="1" t="s">
+      <c r="AL7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AL5" s="1" t="s">
+      <c r="AM7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AO5" s="1" t="s">
+      <c r="AP7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AP5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
+      <c r="AQ7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AR5" s="1" t="s">
+      <c r="AS7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AS5" s="1" t="s">
+      <c r="AT7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AU5" s="1" t="s">
+      <c r="AV7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AV5" s="1" t="s">
+      <c r="AW7" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AW5" s="1" t="s">
+      <c r="AX7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AX5" s="2" t="s">
+      <c r="AY7" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="2"/>
-      <c r="U6" s="1" t="s">
+      <c r="R8" s="2"/>
+      <c r="V8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AG8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AG6" s="1" t="s">
+      <c r="AH8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AL8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AM8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AP8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AP6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR6" s="1" t="s">
+      <c r="AQ8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="AS6" s="1" t="s">
+      <c r="AT8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AU6" s="1" t="s">
+      <c r="AV8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AV6" s="1" t="s">
+      <c r="AW8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AW6" s="1" t="s">
+      <c r="AX8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AX6" s="2" t="s">
+      <c r="AY8" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="2"/>
-      <c r="U7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AX7" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="U8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AX8" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA9" s="1" t="s">
+      <c r="AB9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB9" s="1" t="s">
+      <c r="AC9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AD9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG9" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AG9" s="1" t="s">
+      <c r="AH9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AK9" s="1" t="s">
+      <c r="AL9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AL9" s="1" t="s">
+      <c r="AM9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AO9" s="1" t="s">
+      <c r="AP9" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AP9" s="1" t="s">
+      <c r="AQ9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AQ9" s="1" t="s">
+      <c r="AR9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AR9" s="1" t="s">
+      <c r="AS9" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AS9" s="1" t="s">
+      <c r="AT9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AU9" s="1" t="s">
+      <c r="AV9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AV9" s="1" t="s">
+      <c r="AW9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AW9" s="1" t="s">
+      <c r="AX9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AX9" s="2" t="s">
+      <c r="AY9" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="D10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Z10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="AA10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AA10" s="1" t="s">
+      <c r="AB10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB10" s="1" t="s">
+      <c r="AC10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AD10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF10" s="1" t="s">
+      <c r="AE10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG10" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AG10" s="1" t="s">
+      <c r="AH10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AK10" s="1" t="s">
+      <c r="AL10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AL10" s="1" t="s">
+      <c r="AM10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AO10" s="1" t="s">
+      <c r="AP10" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AP10" s="1" t="s">
+      <c r="AQ10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AQ10" s="1" t="s">
+      <c r="AR10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AR10" s="1" t="s">
+      <c r="AS10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AS10" s="1" t="s">
+      <c r="AT10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AU10" s="1" t="s">
+      <c r="AV10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AV10" s="1" t="s">
+      <c r="AW10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AW10" s="1" t="s">
+      <c r="AX10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AX10" s="2" t="s">
+      <c r="AY10" s="2" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1916,6 +1953,9 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2123,7 +2163,7 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -2154,6 +2194,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2228,33 +2271,36 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2766,5 +2812,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/KatalonData/VRelay30PayNow.xlsx
+++ b/KatalonData/VRelay30PayNow.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5454615-6090-43F1-BB88-EF45372DC307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{B0D62271-6E09-4525-A3B8-3396DFFD7900}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}"/>
+    <workbookView windowHeight="21220" windowWidth="38620" xWindow="-110" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="PayNowCC" sheetId="1" r:id="rId1"/>
-    <sheet name="MissingCC" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="PayNowCC" r:id="rId1" sheetId="1"/>
+    <sheet name="MissingCC" r:id="rId2" sheetId="4"/>
+    <sheet name="Sheet2" r:id="rId3" sheetId="3"/>
+    <sheet name="Sheet1" r:id="rId4" sheetId="2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="153">
   <si>
     <t>Notes</t>
   </si>
@@ -434,22 +434,74 @@
     <t>more than maximum amount error</t>
   </si>
   <si>
-    <t>2001.50</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
     <t>Execute</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Wed May 15 22:11:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 22:12:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 22:13:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 22:15:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 22:16:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 22:17:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 22:18:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Wed May 15 22:19:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 22:21:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>42.50</t>
+  </si>
+  <si>
+    <t>40.50</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Wed May 15 22:50:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 22:52:09 EDT 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -504,21 +556,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -535,10 +587,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -573,7 +625,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -625,7 +677,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -736,21 +788,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -767,7 +819,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -819,1140 +871,1181 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4684B99E-74C7-4C50-809D-02154653C064}">
-  <dimension ref="A1:AY10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4684B99E-74C7-4C50-809D-02154653C064}">
+  <dimension ref="A1:BB10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:B10"/>
+      <pane activePane="topRight" state="frozen" topLeftCell="D1" xSplit="3"/>
+      <selection activeCell="D10" pane="topRight" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="24" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.85546875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.7109375" style="1"/>
-    <col min="31" max="31" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="40" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="17.7109375" style="1" customWidth="1"/>
-    <col min="43" max="43" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="16384" width="15.7109375" style="1"/>
+    <col min="1" max="1" style="1" width="15.69140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.15234375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="49.3828125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="8.15234375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="8.3046875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="6.53515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="6.84375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="13.84375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="9.3828125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="5.53515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="6.15234375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="14.69140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="23.84375" collapsed="true"/>
+    <col min="21" max="26" bestFit="true" customWidth="true" style="1" width="9.69140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="1" width="9.84375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="6.84375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="9.69140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="10.69140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="6.3828125" collapsed="true"/>
+    <col min="32" max="32" style="1" width="15.69140625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="10.3828125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="7.84375" collapsed="true"/>
+    <col min="35" max="36" bestFit="true" customWidth="true" style="1" width="9.69140625" collapsed="true"/>
+    <col min="37" max="42" bestFit="true" customWidth="true" style="1" width="7.84375" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="8.84375" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" style="1" width="17.69140625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="1" width="17.3046875" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="1" width="6.53515625" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="1" width="8.15234375" collapsed="true"/>
+    <col min="48" max="49" bestFit="true" customWidth="true" style="1" width="7.3828125" collapsed="true"/>
+    <col min="50" max="51" bestFit="true" customWidth="true" style="1" width="9.15234375" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="54" max="16384" style="1" width="15.69140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="X2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="V2" s="1" t="s">
+      <c r="O3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="Z3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AD3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AS3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AI4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA4" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="2"/>
+      <c r="X5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AJ5" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AN5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AO5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AR5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AQ2" s="1" t="s">
+      <c r="AS5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="X6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA6" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="X7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA7" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="X8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA8" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AR2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AT9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AY9" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AZ9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="BA9" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="J10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="O10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Z10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AA10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AO10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AR10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS10" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AR3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" s="1" t="s">
+      <c r="AT10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY4" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R5" s="2"/>
-      <c r="V5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY5" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R6" s="2"/>
-      <c r="V6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY6" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R7" s="2"/>
-      <c r="V7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY7" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="R8" s="2"/>
-      <c r="V8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AV8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY8" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY9" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE10" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AP10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS10" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY10" s="2" t="s">
+      <c r="BA10" s="2" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1960,56 +2053,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FB57A2-D7E3-4332-BF3A-D9FD91EC8308}">
-  <dimension ref="A1:AX2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FB57A2-D7E3-4332-BF3A-D9FD91EC8308}">
+  <dimension ref="A1:AY2"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AX6" sqref="AX6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1"/>
-    <col min="30" max="30" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="39" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.7109375" style="1" customWidth="1"/>
-    <col min="42" max="42" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="16384" width="15.7109375" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="49.3828125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.15234375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="8.3046875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.53515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="6.84375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="13.84375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.3828125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="5.53515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="6.15234375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="14.69140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="23.84375" collapsed="true"/>
+    <col min="18" max="23" bestFit="true" customWidth="true" style="1" width="9.69140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="9.84375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="6.84375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="9.69140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="10.69140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="6.3828125" collapsed="true"/>
+    <col min="29" max="29" style="1" width="15.69140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="10.3828125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="7.84375" collapsed="true"/>
+    <col min="32" max="33" bestFit="true" customWidth="true" style="1" width="9.69140625" collapsed="true"/>
+    <col min="34" max="39" bestFit="true" customWidth="true" style="1" width="7.84375" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="8.84375" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="17.69140625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="17.3046875" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="6.53515625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="8.15234375" collapsed="true"/>
+    <col min="45" max="46" bestFit="true" customWidth="true" style="1" width="7.3828125" collapsed="true"/>
+    <col min="47" max="48" bestFit="true" customWidth="true" style="1" width="9.15234375" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="51" max="16384" style="1" width="15.69140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2161,7 +2254,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -2193,7 +2286,7 @@
       <c r="AX2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2201,103 +2294,103 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6029C9A2-9E58-4FB9-972D-7B9E934718A7}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6029C9A2-9E58-4FB9-972D-7B9E934718A7}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="56.3828125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>100</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>101</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>112</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>113</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>130</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>131</v>
       </c>
       <c r="B15" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2305,56 +2398,56 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CECF72-ED76-4A08-B368-44E780FE04C9}">
-  <dimension ref="A1:AX4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CECF72-ED76-4A08-B368-44E780FE04C9}">
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1"/>
-    <col min="30" max="30" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="39" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.7109375" style="1" customWidth="1"/>
-    <col min="42" max="42" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="16384" width="15.7109375" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="38.53515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.15234375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="8.3046875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.53515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="6.84375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="13.84375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.3828125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="5.53515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="6.15234375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="14.69140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="23.84375" collapsed="true"/>
+    <col min="18" max="23" bestFit="true" customWidth="true" style="1" width="9.69140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="1" width="9.84375" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="6.84375" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="9.69140625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="10.69140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="6.3828125" collapsed="true"/>
+    <col min="29" max="29" style="1" width="15.69140625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="10.3828125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="7.84375" collapsed="true"/>
+    <col min="32" max="33" bestFit="true" customWidth="true" style="1" width="9.69140625" collapsed="true"/>
+    <col min="34" max="39" bestFit="true" customWidth="true" style="1" width="7.84375" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="8.84375" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" style="1" width="17.69140625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="17.3046875" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="6.53515625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="8.15234375" collapsed="true"/>
+    <col min="45" max="46" bestFit="true" customWidth="true" style="1" width="7.3828125" collapsed="true"/>
+    <col min="47" max="48" bestFit="true" customWidth="true" style="1" width="9.15234375" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="51" max="16384" style="1" width="15.69140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2506,7 +2599,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>105</v>
       </c>
@@ -2590,7 +2683,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>106</v>
       </c>
@@ -2685,7 +2778,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>107</v>
       </c>
@@ -2811,7 +2904,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/VRelay30PayNow.xlsx
+++ b/KatalonData/VRelay30PayNow.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="155">
   <si>
     <t>Notes</t>
   </si>
@@ -495,6 +495,12 @@
   </si>
   <si>
     <t>Wed May 15 22:52:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 14 23:06:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 14 23:08:15 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -1776,10 +1782,10 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>111</v>
@@ -1910,10 +1916,10 @@
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>112</v>

--- a/KatalonData/VRelay30PayNow.xlsx
+++ b/KatalonData/VRelay30PayNow.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="157">
   <si>
     <t>Notes</t>
   </si>
@@ -501,6 +501,12 @@
   </si>
   <si>
     <t>Wed Aug 14 23:08:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 22:45:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 22:46:38 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -1782,10 +1788,10 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>111</v>
@@ -1916,10 +1922,10 @@
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>112</v>

--- a/KatalonData/VRelay30PayNow.xlsx
+++ b/KatalonData/VRelay30PayNow.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{B0D62271-6E09-4525-A3B8-3396DFFD7900}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B25380F-245F-4795-A955-FD70507447FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="21220" windowWidth="38620" xWindow="-110" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}" yWindow="-110"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{19E085DA-5ADF-4B16-9D78-B410FD3FCE3D}"/>
   </bookViews>
   <sheets>
-    <sheet name="PayNowCC" r:id="rId1" sheetId="1"/>
-    <sheet name="MissingCC" r:id="rId2" sheetId="4"/>
-    <sheet name="Sheet2" r:id="rId3" sheetId="3"/>
-    <sheet name="Sheet1" r:id="rId4" sheetId="2"/>
+    <sheet name="PayNowCC" sheetId="1" r:id="rId1"/>
+    <sheet name="MissingCC" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="154">
   <si>
     <t>Notes</t>
   </si>
@@ -437,83 +437,73 @@
     <t>Execute</t>
   </si>
   <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Wed May 15 22:11:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 22:12:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 22:13:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 22:15:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 22:16:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 22:17:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed May 15 22:18:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>42.50</t>
+  </si>
+  <si>
+    <t>40.50</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 22:45:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Aug 28 22:46:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>CardNum</t>
+  </si>
+  <si>
+    <t>SPC</t>
+  </si>
+  <si>
+    <t>ExpM</t>
+  </si>
+  <si>
+    <t>ExpY</t>
+  </si>
+  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>2028</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Wed May 15 22:11:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed May 15 22:12:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed May 15 22:13:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed May 15 22:15:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed May 15 22:16:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed May 15 22:17:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed May 15 22:18:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Wed May 15 22:19:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed May 15 22:21:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>42.50</t>
-  </si>
-  <si>
-    <t>40.50</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Wed May 15 22:50:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed May 15 22:52:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed Aug 14 23:06:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed Aug 14 23:08:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed Aug 28 22:45:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed Aug 28 22:46:38 EDT 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -568,21 +558,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -595,14 +585,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -635,9 +625,9 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -689,7 +679,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -741,7 +731,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -800,21 +790,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -831,7 +821,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -883,72 +873,72 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4684B99E-74C7-4C50-809D-02154653C064}">
-  <dimension ref="A1:BB10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4684B99E-74C7-4C50-809D-02154653C064}">
+  <dimension ref="A1:BA10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane activePane="topRight" state="frozen" topLeftCell="D1" xSplit="3"/>
-      <selection activeCell="D10" pane="topRight" sqref="D10"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="15.69140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.15234375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="49.3828125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="8.15234375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="8.3046875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="6.53515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="6.84375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="13.84375" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="9.3828125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="5.53515625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="6.15234375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="14.69140625" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="23.84375" collapsed="true"/>
-    <col min="21" max="26" bestFit="true" customWidth="true" style="1" width="9.69140625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="1" width="9.84375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="6.84375" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="9.69140625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="10.69140625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="6.3828125" collapsed="true"/>
-    <col min="32" max="32" style="1" width="15.69140625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="10.3828125" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="7.84375" collapsed="true"/>
-    <col min="35" max="36" bestFit="true" customWidth="true" style="1" width="9.69140625" collapsed="true"/>
-    <col min="37" max="42" bestFit="true" customWidth="true" style="1" width="7.84375" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="8.84375" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" style="1" width="17.69140625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="1" width="17.3046875" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="1" width="6.53515625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="1" width="8.15234375" collapsed="true"/>
-    <col min="48" max="49" bestFit="true" customWidth="true" style="1" width="7.3828125" collapsed="true"/>
-    <col min="50" max="51" bestFit="true" customWidth="true" style="1" width="9.15234375" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="54" max="16384" style="1" width="15.69140625" collapsed="true"/>
+    <col min="1" max="1" width="15.7109375" style="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="49.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="5.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="6.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="23.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="26" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="15.7109375" style="1" collapsed="1"/>
+    <col min="33" max="33" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="36" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="42" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="49" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="51" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="16384" width="15.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1041,78 +1031,81 @@
         <v>58</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
         <v>137</v>
-      </c>
-      <c r="B2" t="s">
-        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>122</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>27</v>
@@ -1179,7 +1172,7 @@
         <v>89</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>97</v>
@@ -1194,12 +1187,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>106</v>
@@ -1292,15 +1285,15 @@
         <v>89</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>107</v>
@@ -1411,7 +1404,7 @@
         <v>91</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>97</v>
@@ -1426,12 +1419,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>123</v>
@@ -1501,7 +1494,7 @@
         <v>89</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AX5" s="1" t="s">
         <v>97</v>
@@ -1516,12 +1509,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>124</v>
@@ -1591,7 +1584,7 @@
         <v>89</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AX6" s="1" t="s">
         <v>97</v>
@@ -1606,12 +1599,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>125</v>
@@ -1681,7 +1674,7 @@
         <v>89</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AX7" s="1" t="s">
         <v>97</v>
@@ -1696,12 +1689,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>126</v>
@@ -1771,7 +1764,7 @@
         <v>89</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AX8" s="1" t="s">
         <v>97</v>
@@ -1786,19 +1779,16 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="E9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1878,7 +1868,7 @@
         <v>27</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AI9" s="1" t="s">
         <v>108</v>
@@ -1905,7 +1895,7 @@
         <v>91</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AX9" s="1" t="s">
         <v>97</v>
@@ -1920,19 +1910,16 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
@@ -2012,7 +1999,7 @@
         <v>27</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AI10" s="1" t="s">
         <v>108</v>
@@ -2039,7 +2026,7 @@
         <v>91</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AX10" s="1" t="s">
         <v>97</v>
@@ -2056,8 +2043,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2065,56 +2052,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FB57A2-D7E3-4332-BF3A-D9FD91EC8308}">
-  <dimension ref="A1:AY2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FB57A2-D7E3-4332-BF3A-D9FD91EC8308}">
+  <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AX6" sqref="AX6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="49.3828125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.15234375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="8.3046875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.53515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="6.84375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="13.84375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.3828125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="5.53515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="6.15234375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="14.69140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="23.84375" collapsed="true"/>
-    <col min="18" max="23" bestFit="true" customWidth="true" style="1" width="9.69140625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="9.84375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="6.84375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="9.69140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="10.69140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="6.3828125" collapsed="true"/>
-    <col min="29" max="29" style="1" width="15.69140625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="10.3828125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="7.84375" collapsed="true"/>
-    <col min="32" max="33" bestFit="true" customWidth="true" style="1" width="9.69140625" collapsed="true"/>
-    <col min="34" max="39" bestFit="true" customWidth="true" style="1" width="7.84375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="8.84375" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" style="1" width="17.69140625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="17.3046875" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="6.53515625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="8.15234375" collapsed="true"/>
-    <col min="45" max="46" bestFit="true" customWidth="true" style="1" width="7.3828125" collapsed="true"/>
-    <col min="47" max="48" bestFit="true" customWidth="true" style="1" width="9.15234375" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="51" max="16384" style="1" width="15.69140625" collapsed="true"/>
+    <col min="1" max="1" width="49.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="5.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="23" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="15.7109375" style="1" collapsed="1"/>
+    <col min="30" max="30" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="33" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="39" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="46" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="48" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="16384" width="15.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2266,7 +2253,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
@@ -2298,7 +2285,7 @@
       <c r="AX2" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2306,103 +2293,103 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6029C9A2-9E58-4FB9-972D-7B9E934718A7}">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6029C9A2-9E58-4FB9-972D-7B9E934718A7}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="56.3828125" collapsed="true"/>
+    <col min="1" max="1" width="56.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>111</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>112</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>113</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>130</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>131</v>
       </c>
       <c r="B15" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2410,56 +2397,56 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CECF72-ED76-4A08-B368-44E780FE04C9}">
-  <dimension ref="A1:AY4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1CECF72-ED76-4A08-B368-44E780FE04C9}">
+  <dimension ref="A1:AX4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="38.53515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="4.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.15234375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="8.3046875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="6.53515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="7.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="6.84375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="13.84375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="9.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="8.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="9.3828125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="5.53515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="6.15234375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="14.69140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="23.84375" collapsed="true"/>
-    <col min="18" max="23" bestFit="true" customWidth="true" style="1" width="9.69140625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="1" width="9.84375" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="6.84375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="9.69140625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="10.69140625" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="6.3828125" collapsed="true"/>
-    <col min="29" max="29" style="1" width="15.69140625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="10.3828125" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="7.84375" collapsed="true"/>
-    <col min="32" max="33" bestFit="true" customWidth="true" style="1" width="9.69140625" collapsed="true"/>
-    <col min="34" max="39" bestFit="true" customWidth="true" style="1" width="7.84375" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="8.84375" collapsed="true"/>
-    <col min="41" max="41" customWidth="true" style="1" width="17.69140625" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="17.3046875" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="6.53515625" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="8.15234375" collapsed="true"/>
-    <col min="45" max="46" bestFit="true" customWidth="true" style="1" width="7.3828125" collapsed="true"/>
-    <col min="47" max="48" bestFit="true" customWidth="true" style="1" width="9.15234375" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="1" width="6.0" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="51" max="16384" style="1" width="15.69140625" collapsed="true"/>
+    <col min="1" max="1" width="38.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="7" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="5.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="23.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="23" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="6.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="6.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="15.7109375" style="1" collapsed="1"/>
+    <col min="30" max="30" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="33" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="39" width="7.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="8.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="17.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="17.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="6.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="8.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="46" width="7.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="48" width="9.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="6" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="18" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="16384" width="15.7109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2611,7 +2598,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>105</v>
       </c>
@@ -2695,7 +2682,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>106</v>
       </c>
@@ -2790,7 +2777,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>107</v>
       </c>
@@ -2916,7 +2903,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
